--- a/Known_compounds.xlsx
+++ b/Known_compounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist428146_tecnico_ulisboa_pt/Documents/PhD_Research/2_Chapter2_Flavobacteriaceae/2_Paper_construction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist428146_tecnico_ulisboa_pt/Documents/PhD_Research/2_Chapter2_Flavobacteriaceae/flavobacteriaceae_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{DB7C5CC9-9473-4AB7-BCEB-76CBCB2C1FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D3396950-5A61-4E3B-B5CA-AEB5F8DF91B1}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{DB7C5CC9-9473-4AB7-BCEB-76CBCB2C1FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9C7E46D4-EEC2-440C-B3AF-EF5447AF0ADD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1164" yWindow="3480" windowWidth="22224" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Known_compounds" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="184">
   <si>
     <t>BGC</t>
   </si>
@@ -447,9 +447,6 @@
     <t>Pseudomonas</t>
   </si>
   <si>
-    <t xml:space="preserve"> putida</t>
-  </si>
-  <si>
     <t>10.1128/AEM.00335-12</t>
   </si>
   <si>
@@ -695,6 +692,12 @@
   </si>
   <si>
     <t>Antimicrobial (A. Bej. Patent PCT/US2010/024823/W) 2010096719 A2.), antitumoral (10.1016/j.msec.2015.10.019)</t>
+  </si>
+  <si>
+    <t>putida</t>
+  </si>
+  <si>
+    <t>C46H90O6</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>41</v>
@@ -1825,7 +1828,7 @@
         <v>24</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -1881,7 +1884,7 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -2150,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2351,7 +2354,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2368,8 +2371,8 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2394,46 +2397,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="I1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2441,20 +2444,23 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="8"/>
       <c r="J2" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="L2" s="18">
         <v>1934</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2466,10 +2472,10 @@
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>52</v>
@@ -2484,7 +2490,7 @@
         <v>49</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>51</v>
@@ -2507,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="8"/>
@@ -2519,13 +2525,13 @@
         <v>67</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>65</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>66</v>
@@ -2534,7 +2540,7 @@
         <v>2014</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>56</v>
@@ -2553,7 +2559,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>52</v>
@@ -2568,7 +2574,7 @@
         <v>58</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>60</v>
@@ -2596,7 +2602,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>52</v>
@@ -2634,12 +2640,12 @@
         <v>12</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>52</v>
@@ -2654,7 +2660,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>77</v>
@@ -2680,7 +2686,7 @@
         <v>122</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>43</v>
@@ -2690,10 +2696,10 @@
         <v>52</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>56</v>
@@ -2705,10 +2711,10 @@
         <v>1963</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2719,11 +2725,11 @@
         <v>83</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>52</v>
@@ -2738,7 +2744,7 @@
         <v>82</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>84</v>
@@ -2782,7 +2788,7 @@
       <c r="C11" s="23"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>52</v>
@@ -2797,7 +2803,7 @@
         <v>108</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>110</v>
@@ -2823,7 +2829,7 @@
         <v>126</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2831,10 +2837,10 @@
         <v>52</v>
       </c>
       <c r="G12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>56</v>
@@ -2846,7 +2852,7 @@
         <v>2018</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O12" s="18" t="s">
         <v>127</v>
@@ -2861,7 +2867,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>52</v>
@@ -2870,13 +2876,13 @@
         <v>72</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>90</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>92</v>
@@ -2904,7 +2910,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>52</v>
@@ -2919,7 +2925,7 @@
         <v>115</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>117</v>
@@ -2960,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>98</v>
@@ -2988,7 +2994,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>52</v>
@@ -2997,7 +3003,7 @@
         <v>129</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>56</v>
@@ -3009,7 +3015,7 @@
         <v>2012</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O16" s="18" t="s">
         <v>128</v>
@@ -3032,7 +3038,7 @@
         <v>105</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>102</v>
@@ -3064,7 +3070,7 @@
         <v>123</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3076,17 +3082,17 @@
         <v>56</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O18" xr:uid="{58D37C20-EDEE-4F46-84F8-DB3F33A239E4}"/>
+  <autoFilter ref="A1:O18" xr:uid="{075DF92A-5DA0-4AEC-9869-9008B14693F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Known_compounds.xlsx
+++ b/Known_compounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist428146_tecnico_ulisboa_pt/Documents/PhD_Research/2_Chapter2_Flavobacteriaceae/flavobacteriaceae_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="6_{DDBDD235-1228-4B18-A2C8-3CB2F7B8EBA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2739EA44-E99C-42CE-BF13-31AA4AB7EC7F}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="6_{DDBDD235-1228-4B18-A2C8-3CB2F7B8EBA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F84C7711-8188-4CA5-B05F-43F863C8793F}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="5940" windowWidth="22224" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="816" yWindow="5940" windowWidth="22224" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Known_compounds" sheetId="2" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="202">
   <si>
     <t>BGC</t>
   </si>
   <si>
-    <t>Total_BGCs</t>
-  </si>
-  <si>
     <t>Flavobacteriaceae</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>Marine</t>
-  </si>
-  <si>
-    <t>Non_marine</t>
   </si>
   <si>
     <t>Unclassified</t>
@@ -679,21 +673,6 @@
     <t>Toxic</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> trans‐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>AT Family</t>
-    </r>
-  </si>
-  <si>
     <t>Yes (https://www.uniprot.org/uniprot/A0A1I4S3N9)</t>
   </si>
   <si>
@@ -704,13 +683,79 @@
   </si>
   <si>
     <t>ferric-iron chelator</t>
+  </si>
+  <si>
+    <t>Yes polaribacter (10.1007/s11274-014-1607-2)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No (10.1021/jacs.8b03896)</t>
+  </si>
+  <si>
+    <t>BGC0001479</t>
+  </si>
+  <si>
+    <t>NRPS</t>
+  </si>
+  <si>
+    <t>Terpene</t>
+  </si>
+  <si>
+    <t>Arylpolyene</t>
+  </si>
+  <si>
+    <t>Siderophore</t>
+  </si>
+  <si>
+    <t>Lipopeptide</t>
+  </si>
+  <si>
+    <t>RiPP</t>
+  </si>
+  <si>
+    <t>trans‐AT Family</t>
+  </si>
+  <si>
+    <t>Exopolysaccharide</t>
+  </si>
+  <si>
+    <t>B-lactam</t>
+  </si>
+  <si>
+    <t>Saccharide</t>
+  </si>
+  <si>
+    <t>Thiopeptide</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>PKS/NRPS hybrid</t>
+  </si>
+  <si>
+    <t>PUFA</t>
+  </si>
+  <si>
+    <t>High similarity % with MiBIG BGC</t>
+  </si>
+  <si>
+    <t>Total BGCs</t>
+  </si>
+  <si>
+    <t>Non-marine</t>
+  </si>
+  <si>
+    <t>Toxin, protease inhibitory activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,8 +957,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,6 +1149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,37 +1297,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1301,8 +1329,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1345,8 +1404,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1384,56 +1444,74 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Cor2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Cor3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1466,6 +1544,7 @@
     <cellStyle name="Cor6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Correto" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="42" builtinId="8"/>
     <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1787,16 +1866,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CECDE-70EA-4E74-9BF0-375BA507CFA2}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="6" customWidth="1"/>
@@ -1812,130 +1891,135 @@
     <col min="14" max="14" width="26.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="6"/>
-    <col min="17" max="17" width="36.5546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="6" customWidth="1"/>
     <col min="18" max="19" width="8.88671875" style="6"/>
-    <col min="20" max="20" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" style="4" customWidth="1"/>
     <col min="23" max="23" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" style="4" customWidth="1"/>
     <col min="25" max="25" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.77734375" style="4" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" style="4" customWidth="1"/>
     <col min="28" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="5" customFormat="1" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" s="22" t="s">
+      <c r="C1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="24" t="s">
+      <c r="P1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="U1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>168</v>
+      <c r="Z1" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P2" s="6">
         <v>1934</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="T2" s="20">
+        <v>144</v>
+      </c>
+      <c r="T2" s="17">
         <v>2117</v>
       </c>
       <c r="U2" s="3">
@@ -1956,65 +2040,67 @@
       <c r="Z2" s="2">
         <v>28</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="16">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="P3" s="6">
         <v>1974</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="20">
+      <c r="T3" s="17">
         <v>1234</v>
       </c>
       <c r="U3" s="3">
@@ -2035,57 +2121,59 @@
       <c r="Z3" s="3">
         <v>5</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="21">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P4" s="6">
         <v>2014</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="20">
+        <v>46</v>
+      </c>
+      <c r="T4" s="17">
         <v>392</v>
       </c>
       <c r="U4" s="3">
@@ -2106,63 +2194,65 @@
       <c r="Z4" s="3">
         <v>20</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="P5" s="6">
         <v>2013</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="20">
+        <v>42</v>
+      </c>
+      <c r="T5" s="17">
         <v>180</v>
       </c>
       <c r="U5" s="3">
@@ -2183,61 +2273,63 @@
       <c r="Z5" s="3">
         <v>33</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="AA5" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="P6" s="6">
         <v>2001</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="20">
+        <v>53</v>
+      </c>
+      <c r="T6" s="17">
         <v>64</v>
       </c>
       <c r="U6" s="3">
@@ -2258,61 +2350,63 @@
       <c r="Z6" s="3">
         <v>20</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AA6" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="6">
         <v>2015</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="20">
+        <v>59</v>
+      </c>
+      <c r="T7" s="17">
         <v>53</v>
       </c>
       <c r="U7" s="3">
@@ -2333,58 +2427,61 @@
       <c r="Z7" s="3">
         <v>11</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="16">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P8" s="6">
         <v>1963</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="T8" s="20">
+        <v>140</v>
+      </c>
+      <c r="T8" s="17">
         <v>33</v>
       </c>
       <c r="U8" s="3">
@@ -2405,61 +2502,64 @@
       <c r="Z8" s="2">
         <v>9</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="P9" s="6">
         <v>2011</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" s="20">
+      <c r="T9" s="17">
         <v>29</v>
       </c>
       <c r="U9" s="3">
@@ -2480,48 +2580,51 @@
       <c r="Z9" s="3">
         <v>8</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P10" s="6">
         <v>1979</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="T10" s="20">
+        <v>162</v>
+      </c>
+      <c r="T10" s="17">
         <v>22</v>
       </c>
       <c r="U10" s="3">
@@ -2542,59 +2645,63 @@
       <c r="Z10" s="3">
         <v>6</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="P11" s="6">
         <v>1977</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" s="20">
+        <v>92</v>
+      </c>
+      <c r="T11" s="17">
         <v>13</v>
       </c>
       <c r="U11" s="3">
@@ -2615,56 +2722,59 @@
       <c r="Z11" s="3">
         <v>20</v>
       </c>
-      <c r="AA11" s="17">
+      <c r="AA11" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
+      <c r="A12" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P12" s="10">
         <v>2018</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" s="20">
+        <v>105</v>
+      </c>
+      <c r="T12" s="17">
         <v>13</v>
       </c>
       <c r="U12" s="3">
@@ -2682,66 +2792,66 @@
       <c r="Y12" s="3">
         <v>6</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="20">
         <v>50</v>
       </c>
-      <c r="AA12" s="28">
+      <c r="AA12" s="21">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>178</v>
+      <c r="D13" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="P13" s="6">
         <v>2007</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="20">
+        <v>98</v>
+      </c>
+      <c r="T13" s="17">
         <v>12</v>
       </c>
       <c r="U13" s="3">
@@ -2762,57 +2872,60 @@
       <c r="Z13" s="3">
         <v>14</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="16">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="P14" s="6">
         <v>1994</v>
       </c>
       <c r="Q14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T14" s="20">
+      <c r="T14" s="17">
         <v>12</v>
       </c>
       <c r="U14" s="3">
@@ -2833,61 +2946,61 @@
       <c r="Z14" s="3">
         <v>7</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="AA14" s="16">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="P15" s="6">
         <v>2002</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="20">
+        <v>79</v>
+      </c>
+      <c r="T15" s="17">
         <v>9</v>
       </c>
       <c r="U15" s="3">
@@ -2908,55 +3021,55 @@
       <c r="Z15" s="3">
         <v>17</v>
       </c>
-      <c r="AA15" s="17">
+      <c r="AA15" s="16">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P16" s="6">
         <v>2012</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T16" s="20">
+        <v>106</v>
+      </c>
+      <c r="T16" s="17">
         <v>9</v>
       </c>
       <c r="U16" s="3">
@@ -2977,57 +3090,65 @@
       <c r="Z16" s="3">
         <v>28</v>
       </c>
-      <c r="AA16" s="17">
+      <c r="AA16" s="16">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
+      <c r="A17" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="K17" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="P17" s="6">
         <v>2010</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T17" s="20">
+        <v>85</v>
+      </c>
+      <c r="T17" s="17">
         <v>8</v>
       </c>
       <c r="U17" s="3">
@@ -3045,71 +3166,87 @@
       <c r="Y17" s="3">
         <v>4</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="20">
         <v>100</v>
       </c>
-      <c r="AA17" s="28">
+      <c r="AA17" s="21">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="9"/>
-      <c r="M18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="13" t="s">
+    <row r="18" spans="1:27" s="24" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="26"/>
+      <c r="M18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="21">
+      <c r="T18" s="29">
         <v>8</v>
       </c>
-      <c r="U18" s="18">
+      <c r="U18" s="25">
         <v>8</v>
       </c>
-      <c r="V18" s="18">
+      <c r="V18" s="25">
         <v>0</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="25">
         <v>4</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="25">
         <v>0</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="25">
         <v>4</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="25">
         <v>9</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="AA18" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="21" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S18" xr:uid="{075DF92A-5DA0-4AEC-9869-9008B14693F5}"/>
+  <hyperlinks>
+    <hyperlink ref="S18" r:id="rId1" xr:uid="{ABC9366C-1F79-414E-BE03-23B144ED50F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>